--- a/etc/AI_robot_charging.xlsx
+++ b/etc/AI_robot_charging.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\03 학교업무\07 2021 학교업무\06 정보교육부(2021)\08 AI 축제\aimaze\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E62689C-D6AE-4ADF-84BE-B99FC6E6ADE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57F9E51-E928-4A3C-BE5A-41C33A356E9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0A41509-8422-48C9-A00F-1F752F3F2748}"/>
   </bookViews>
   <sheets>
-    <sheet name="AI 로봇 충전 시간(분)과 활동 에너지" sheetId="1" r:id="rId1"/>
+    <sheet name="AI 로봇 충전 시간과 활동 에너지" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,11 +35,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>충전 시간</t>
+    <t>AI 로봇 활동 에너지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AI 로봇 활동 에너지</t>
+    <t>충전 시간(분)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +434,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -445,10 +445,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
